--- a/500all/speech_level/speeches_CHRG-114hhrg94746.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94746.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. The Armed Services Tactical Air and Land Forces Subcommittee meets today in open session to receive testimony on the current status of the F-35 Joint Strike Fighter, JSF, program. This hearing continues the ongoing oversight activity conducted by the committee on the F-35 programs. The program officially began in 2001. We welcome our distinguished panel of witnesses.    We have Dr. Michael Gilmore, Director of Operational Test and Evaluation [DOT&amp;E]; Dr. Michael J. Sullivan, Director of Acquisition and Sourcing, Government Accountability Office [GAO]; the Honorable Sean Stackley, Assistant Secretary of the Navy for Research, Development and Acquisition; Lieutenant General Christopher C. Bogdan, F-35 Program Executive Officer.    I thank all of you for your service and look forward to your testimony today.    The F-35 is a complex program. It is well known that, during its development, the F-35 program has experienced significant cost, schedule, and performance problems. Current acquisition costs are now approaching $400 billion, which, according to GAO, makes this DOD's [Department of Defense] most costly and ambitious acquisition program.    Over the last year, steady progress was achieved in development, production, and operations, but the subcommittee continues to have concerns regarding recent engine test failures and on software development and integration.    This committee, in particular this subcommittee, has maintained vigilant oversight on the F-35 program through legislation, hearings, and briefings, and, most recently, a trip to Eglin Air Force Base, Florida, to see the F-35 operations and talk to F-35 pilots and maintenance personnel.    Last year the committee required the Secretary of Defense to establish an independent team to review and assess the development of software and software integration for the F-35 program. This subcommittee may recommend a similar approach as a way to effectively review the most recent engine test failures.    I understand the substantial investment in the F-35 is more about the requirement for fifth-generation tactical fighter capability than it is about the F-35 itself. And let me underscore that. All of the members of this subcommittee are very well aware of the need for fifth-generation tactical fighter capability and the need to ensure that the F-35 is one of the most capable aircraft.    Based on the briefings and hearings held by the subcommittee, I have learned that fifth-generation tactical fighter capability is essential for maintaining air dominance and national security. Despite this critical need, that does not mean that this program should be rubber-stamped. As we have done in the past, the committee will hold this program accountable for cost, schedule, and performance.    The budget request for fiscal year 2016 includes $1.8 billion for F-35 research, development, test, and evaluation and $8.7 billion for the procurement of 57 F-35s, and $410.2 million for spares. This represents an increase of 19 aircraft and is also a $2.5 billion increase in F-35 funding from the fiscal year 2015 enacted levels.    And we all understand that we need to get to a higher production level to get the lower per-unit cost. We also understand that we have to address the issues operationally for the F-35 to ensure its best capability for the pilots and its intended needs.    We will hear today both the Director of the Operational Test and Evaluation and the GAO have concerns about the F-35 program for fiscal year 2016 and beyond. I look forward to all of our witnesses' testimony today, which will provide for a better understanding of the current status of the F-35 program.    [The prepared statement of Mr. Turner can be found in the Appendix on page 33.]</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400356</t>
   </si>
   <si>
-    <t>Loretta Sanchez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman. And thank you for calling this. I think this is an incredibly important project for us.    So we are looking at the 2016 budget request for the F-35 Lightning II aircraft program. It totals $10.8 billion spread across 17 separate procurement and R&amp;D [research and development] accounts. That is an enormous amount even by the standards of the Department of Defense's budget.    The total is, for example, more than the Navy's fiscal year 2016 request for aircraft carrier and submarine construction combined. It is five times as much as the Army's fiscal year 2016 request for weapons and tracked combat vehicles. So given the scale of this proposed funding, I think it is important that we try to understand what is going on with the program.    Since World War II, America's way of war has required air superiority. And so airpower is one of the great advantages that we give to our military, especially when we are in places and it has proven time and time again. So the F-35 program, while flawed to this point, is really the key to retaining that airpower edge for the next 20 years or so. It is also going to be flown by at least 12 allied nations, all of whom are likely to be our partners in future conflicts at some point.    And so there have been some critics who have said we need to terminate this program because it is over cost, it is long overdue, and there are still problems with it. However, I believe that we are past that decision point. We have just got to make this program work.    And I think you will agree with me, Mr. Chairman, we have had many discussions on this. We have got to get this done.    Making it work is not an easy task. It is a very complicated piece of machinery, and everybody's had their fingers in it. Lots of decision have been made, and lots of decisions have been changed.    I am very still concerned about the engine fire last year, which resulted in a setback in the testing schedule. The substantive grounding also highlighted the risk of the current sole-source engine production arrangement that this program depends upon.    Secondly, the highly sophisticated software for the F-35 continues to encounter developmental delays. Both the GAO and the DOT&amp;E have pointed out in their most recent reports that, because of the pressures on the flight testing schedule, a significant amount of test points were deferred or entirely dropped.    More specifically, the committee was recently informed by the F-35 program office at the start of development flight testing of some critical elements of the Block 3F software effort are on hold indefinitely, pending more progress on the critical fusion element of the preceding Block 2B software.    In addition to its stealth characteristics, the ability to fuse sensor feeds from other F-35s and other sources is one of the most important parts of the F-35 program. So, of course, this delay is also troubling with respect to the program.    And the operating and maintenance: The sustainability is significantly different than when we envisioned this project on the drawing boards. The GAO report noted in particular that the F-135 engine is far below reliability targets and that, as a result, the overall availability of the F-35 continues to lag significantly behind expectations.    I know that, when we have had other aircraft, new aircraft, we have had some of the same problems, not to this extent, not in this size, but we do need to get past these issues. So given all of these challenges and the very large funding request for the F-35 that we are faced with, I think it is important in today's hearing.    And this is what I would like to hear about: Is the proposed increase in F-35 production numbers, which would rise from 38 in fiscal year 2015 to 57 in fiscal year 2016, justified, given where the program is in development? What would a reduction in the numbers of aircraft look in particular to this program?    Second, we need a detailed review of what happened with that engine fire last year. I have been asking for it. I haven't heard it yet. We know that the aircraft and the engine in question were relatively new, yet a failure still occurred. Is it a manufacturing defect? Is it a design flaw? I would like to hear about that.    Third, the sensor fusion aspect of the F-35 software is a little understood, but critical, issue that is still not working as planned. What degree of risk do we face with that portion of the software? And could problems in this area turn what is the current delay of about 3 to 6 months into years?    So I look forward to getting some of the answers to these questions, gentlemen. Thank you.    And, Mr. Chairman, thank you for indulging me with the time.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gilmore</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gilmore. Thank you, Mr. Chairman and Congresswoman Sanchez and members of the subcommittee. I will just briefly summarize my written testimony.    Block 2B testing was extended, but is now nearing completion. The program developed an additional build to the Block 2B mission system software designed to incorporate fixes to problems, particularly in fusion of information both from the sensors on an individual aircraft as well as from the sensors on other F-35 aircraft that were highlighted in testing that was conducted in December of last year and early in 2015.    This so-called engineering test build was flown on 17 test sorties using 3 different mission systems to test aircraft in March. And although some improvement in performance was reportedly observed, distinguishing ground targets from clutter continue to be problematic.    And given the limits in the improvement seen using this engineering test build, I understand the program has decided to field the current, that is, prior to the engineering test build version, of the Block 2B software as opposed to waiting and doing additional testing with the engineering test build and to defer fixes of the software to Block 3i development and testing. If the balance of 2B testing completes in April, this would represent a delay of about 6 months relative to the program's master schedule.    Modification of early lot aircraft into a configuration usable for combat with Block 2B capabilities, a necessity brought on by the concurrency in the program, which dates to the program's initiation back in early last decade, is taking longer than planned and longer than predicted when the Department eliminated, on my recommendation, the block to the long-planned Block 2B operational utility evaluation [OUE].    These delays, as well as other problems that motivated the extension of Block 2B testing, indicate clearly that the aircraft would not have been ready to conduct the OUE by beginning training with operational pilots this past January and convinced me that the recommendation I made, which was adopted, was the correct one.    The trends and reliability metrics we track are unclear. The most recent data we have obtained generally indicate, with the exception of mean flight hours between critical failure for the F-35B, a 3-month upward trend, which is good, from September 2014 to November 2014. However, when combined with data from the previous 3 months, they showed both declines and increases. Thus, I cannot yet conclude with confidence that reliability is continuing to improve.    Aircraft availability did show improvement at the end of 2014, as the program focused on providing greater supplies of spares and on shortening maintenance activities that had heretofore required longer aircraft downtimes. However, that trend has not been sustained so far in calendar year 2015, as the first 2 months have shown a decline. But, again, that is only 2 months. We shouldn't rush to conclusions about whether that constitutes a trend.    I have also updated my analysis of the growth and reliability needed for the F-35A and B variants to achieve their requirements based on the most recent data from November 2014. And that analysis indicates that growth and selected reliability metrics for both aircraft, the A and the B, remain insufficient to meet requirements of maturity. And there is insufficient flight hours in the C variant to preclude that--I can't do meaningful analysis at this point in development. It is still too early.    Discoveries in testing continue to occur, which should be expected in a program of this complexity, such as was highlighted regarding sensor fusion, as well as the occurrence of additional unpredicted cracking in the F-35B durability test article, which was discovered in February and caused testing to pause until repairs could be completed. Testing did restart on the 1st of April.    Flight testing of Block 3i mission systems, consisting of a Block 2B software we hosted on the upgraded set of processor hardware needed before Block 3F software can be used, we started March. And one of the mission systems test aircraft began testing the next increment of software that is called 3iR5.    Block 3F flight testing also began in March, what was limited to three single-ship test flights on one mission system's test aircraft, AF-3, prior to it being reconfigured to support late Block 3i testing. This start represents an 11-month delay relative to the program's master schedule and about a 1-month delay relative to the program's more recent projections.    Continued Block 3F testing is not scheduled until June, as the program's plans for reconfiguring aircraft in the Block 2B configuration to Block 3F are under development.    In both my annual report and my written testimony, I identified problems with the U.S. Reprogramming Laboratory, which is the government facility that is going to be used to generate what are called mission data files for the aircraft--mission data loads for the aircraft. These data loads are essential to the effective combat operations of Joint Strike Fighter.    I had identified 2 years ago shortfalls in those labs. The program office has done a study that reconfirmed those shortfalls and found new shortfalls. About 2 years ago the Secretary of Defense provided resources to correct those shortfalls, but no action has been taken.    It is my understanding, if the program office takes action very quickly, those shortfalls can be corrected in time for operational testing and, more importantly, for full operational capability, and I recommend strongly that that action be taken.    In my annual report and written testimony, I provided no review of Block 2B capabilities and limitations. The program has identified and prioritized many deficiencies for correction. Nonetheless, Block 2B aircraft will be fielded without a number of corrections of operational significance in place.    Further discovery of problems is likely, in my view, as operational units start using JSF in ways it has not previously been used. I agree with the program's assessment that there is at least 6 months' pressure in completing Block 3F, recently projected by the program to complete testing in May 2017.    While the program has worked hard to reduce the bow wave of what it calls technical debt, which are fixes to problems that were deferred from earlier mission software versions to later versions--and that continues to happen--the program is now deferring fixes, including problems with fusion and testing to Block 3i and Block 3F, which, together with the delays that have occurred in starting Block 3 testing, increase risk on the program's projected Block 3F schedule.    Thank you.    [The prepared statement of Dr. Gilmore can be found in the Appendix on page 35.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Turner. Mr. Sullivan, who hails from the great and historic Wright-Patterson Air Force Base.</t>
   </si>
   <si>
-    <t>Sullivan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sullivan. Sorry about the Flyers this year, although they made it.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t xml:space="preserve">    Mr. Turner. Thank you.    Mr. Secretary.</t>
   </si>
   <si>
-    <t>Stackley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Stackley. Chairman Turner, distinguished members of the subcommittee, I thank you for the opportunity to appear before you today to testify on the F-35 Joint Strike Fighter program.    The Marine Corps variant of the Joint Strike Fighter is on track to achieve its initial operational capability, or IOC, this summer. This milestone is, of course, but a way point, for the software build called Block 2B, which the Marines will employ at IOC, provides limited warfighting capability in accordance with the program's long-planned incremental build plan.    Full warfighting capability, at least sufficient to support the final, of the services and our international partners and our foreign military sales customer nations IOCs will be delivered in a subsequent software build called Block 3F.    That notwithstanding, it should not be lost on this subcommittee, the significant challenges and adversity that the program has and will continue to overcome in order to achieve the Marines' IOC and that the milestone will be achieved more or less in accordance with the budget and schedule established by the program about 4 years ago.    Today, increasingly, the focus is on delivering the next block of capability, Block 3i, which incorporates upgraded computing hardware, but otherwise is the warfighting equivalent of Block 2B, and, therefore, assessed as relatively low risk. We have begun flight testing with Block 3i, and today we assess that we are on track to support the Air Force IOC with Block 3i capability in the summer of 2016.    Completion of the final block of capability, Block 3F, which is the capability that the services will ultimately deploy with, poses the greatest challenge to completion of the system development phase of the Joint Strike Fighter program.    Block 3F software requirements are well understood and stable. However, this block includes the most complex functionality of the three software baselines, including what is referred to as sensor fusion.    Further, coding and testing of Block 3F has been delayed as a result of the resource demands, software engineers, and lab facilities associated with supporting completion of earlier software builds.    These factors add up to the program's estimate of 4 to 6 months schedule risk with completion of Block 3F. Despite the schedule risk, we remain on track to support the Navy carrier variant IOC with Block 3F in 2018.    In parallel with completion of the system software and related flight testing leading to each of the service's IOCs, the program is managing the resolution of technical issues that have been discovered in testing; the ramp-up of production of the three aircraft variants across a large and growing industrial base that supports JSF; improvements to affordability and production; incorporation of modifications to correct deficiencies identified on earlier production aircraft; needed improvements to reliability and maintainability of the aircraft; planning and assignment of maintenance, repair, overhaul, and upgrade, or MRO&amp;U, responsibilities across the global regions where the JSF will operate; and formulation of the program operations and support strategy with its own focus on affordability.    To briefly summarize, today's scorecard on technical issues largely reflects a large list of issues that are well understood with fixes either under development or in various stages of implementation. That said, we are wary that further technical issues are certain to emerge as we press on with system testing, and it will be critical that the program rapidly correct these deficiencies while mitigating their impact on test and production.    The most notable technical issue which emerged this past year, a rub condition between the engine rotor and rotor seal, led to an engine fire and brought flight testing to a standstill for several weeks while the root cause of the issue was being determined. We are confident that this technical issue is resolved and are proceeding with implementation of the fix across the fleet of affected aircraft.    Aircraft production is demonstrating healthy labor learning curve performance, improving quality trends, improving schedule performance and lot-over-lot unit cost reduction. This is as expected for a program at this stage.    To spur a greater cost improvement, the program, led by an industry initiative, has launched an effort referred to as Blueprint for Affordability, which has established a target unit cost for the F-35A of about $80 million by 2019.    We are embarking on similar concerted efforts in order to improve aircraft reliability, maintainability, and availability, or RM&amp;A. Overall, performance in this area has been poor.    It is only in the past 6 months that improvements to design, parts availability, and maintenance, training, and support are starting to show needed results, providing a positive sign that we may meet our interim RM&amp;A requirement of 60 percent aircraft availability by year's end. RM&amp;A is a principal focus area for the program in 2015.    Lastly, the program is working closely with the services and our international partners and industry to formulate the operations and sustainment, or O&amp;S, strategy for the Joint Strike Fighter.    The effort encompasses activities stretching from completing development of logistics tools, to standup of depot facilities, to supply chain management, engineering and software support, and determination of the business plan that will accompany each of these activities and an overarching O&amp;S war on cost.    In summary, while maintaining its focus on achieving the services' initial operational capability milestones, the JSF program is also systematically tackling a large number of risk items and issues that confront this program across the full spectrum spanning development, test, production, operations, and sustainment.    We are experiencing improving trends in virtually all areas, but we are painstakingly aware of the significant challenges that remain ahead and are committed to meeting those challenges head-on with discipline, with rigor, and with full transparency.    Mr. Chairman, we look forward to answering your questions.    [The joint prepared statement of Secretary Stackley and General Bogdan can be found in the Appendix on page 72.]</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman.    Thank you all for your testimony.    I do agree that the importance of this weapon system as to our airpower and our national security strategy is pretty clear to everyone. I also appreciate your optimism, but I don't think we could come here without the skepticism that is probably healthy in any endeavor that we do.    So just a couple of things I would ask. And I am going to build on this last question on long-term viability and sustainability because the issues we are talking about are just getting us to the baseline and where we go from there.    And so, Mr. Sullivan, on several occasions, I think you have been thoughtful about it and raised long-term affordability as a key area of risk. Is that addressed? Do you see that moving in the right direction? And do you still consider--I think it is obvious and wise to think that way. But where are we headed with it?</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    When we went to Eglin, we spent some time with the pilots and asked them what are the problems that they are finding. And, you know, that is certainly the best way to find out, I think, is to actually talk to them. And I know that I think you have been briefed on it and seen the list.    And I guess kind of parlaying on what Mr. Walz asked, how many of these things that you see here--and I could go through them all; don't necessarily have to--will we be able to address in the next year?    General Bogdan. Over the past 2 years, we have faced a number of technical issues that 2 years ago or a year ago, if you had said, ``Where will you be in April of 2015?'' I would have told you, ``Well, I would like to have this retired and that retired and that retired.''    So let me give you a list of a few of the things that we have retired and now a few of the things we are working on in 2015 when we come back next year will hopefully retire.    A year ago there was a lot of speculation and discussion about how good the helmet was going to be, the Generation III helmet, because the Generation II helmet had some shortfalls. It had a jitter problem. It had green glow problems. It had latency problems. It wasn't good enough for the warfighter.    Today I can tell you we are flight-testing the Gen III helmet right now and all indications are from the test pilots is that it is much improved, much improved. So I put a half a checkmark in that box and say, ``Okay. We are controlling that.''    Last year we had a major engine problem. I will tell you today we have the solution for that engine problem. It is being put into the field. And by this summer, I will have the final production version of that fix into the production line and that will be behind us.    We had a problem with lightning. We were having a problem qualifying the airplane to fly in lightning last year. That problem is basically behind us.    And, in fact, I don't know if the guys at Eglin told you, but 2 weeks ago a CF-8 flying--returning from base was struck by lightning. He was in clear air and he was struck by lightning, and absolutely nothing bad happened to the airplane.    The pilot landed the airplane. No warnings and cautions. No problems. And we could see where the lightning went into the right wing tip and came out. So lightning is another one we would put on that list of last year a problem, not a problem this year.    Fuel dumping was a problem last year because the fuel dump on the airplane comes from the bottom of the wing. And so, when you dump fuel from the bottom of the wing, there is high pressure there. It pushes the fuel up onto the wing and it sticks and it makes the wing wet. We have solved that problem.    So those are just a few of the things that a year or two ago were high on our list. What is high on our list this year?    We already talked about ALIS. ALIS has a long way to go, sir. It is a complicated 5-million-lines-of-code piece of equipment that we started treating like a piece of support equipment. It is not. It is an integral part of the weapon system.    So we have had to take steps in the last 2 years to change fundamentally the way we develop ALIS. We have applied the same techniques we used in developing software on the airplane to now developing software in ALIS. It is just going to take us some time to realize those results.    We had a problem with the hook. When we first tested the hook on a C-model a year and a half ago, we missed seven out of eight traps at Lakehurst. We went out to the boat last year and hit 124 out of 124.    So I guess what I am expressing here is we are going to have more technical problems on this program. It is a measure of a good program for you to be able to absorb those, find fixes for them, and then continue moving the ball down the field on the program. I think we are in a better position now than we ever have been to address those kind of problems.</t>
   </si>
   <si>
@@ -178,9 +157,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    I find it comforting that--or maybe not so comforting to think that the question I really wanted to talk about was ALIS and it is one that is of concern to the chairman. As a former aviator and, also, a logistics officer, let's talk maintenance and logistics and ALIS.    I am concerned that the manpower it takes to clear every single one of those false positives--false negatives is driving up maintenance costs and now you have got more and more man-hours or person-hours or airmen-hours or contractor-hours that have to clear every single one of those.    In addition, whether it is 80 percent or whatever it is, I would like to know--and you don't have to give it to me today because I doubt, General, that you have it--how often are you getting a circle red X or a red X status on aircraft that is driving down the aircraft availability for missions and for different mission profiles? Because now, even if it is a false positive, you are affecting mission readiness for the aircraft.    And you talked about problems with the system in the past, not necessarily ALIS, but problems that have been fixed, last year the helmets--Generation II and Generation III helmets.    Is there a timeline in place to fix all of these problems with ALIS? Do you have benchmarks in place: ``In 6 months you will have X number of lines of codes fixed and within a year we will be at this point''?    And then the final question is--one of the issues is not even software. We are talking about the size, bulk, and weight. My understanding is, during the carrier integration phase, ALIS could not deploy and, instead, the USS Hornet [USS Wasp] had to rely upon the ALIS system at Fort Worth, Texas, for logistical support because it was too bulky to deploy onto the [Wasp], which, you know, as someone who flew small aircraft, if you couldn't carry it in the aircraft or sling-loaded under the aircraft, it didn't go with you. The idea that you would have an integral part of your maintenance system that can't even fit on the USS [Wasp] is very, very troubling to me.    General Bogdan. Yes, ma'am. Relative to the plan, we absolutely do have a plan for ALIS. As I said before, until about 2 years ago, we weren't treating ALIS much other than a piece of support equipment. We now recognize that it could be its own weapons system.    So we have put all the system's engineering discipline, the software metrics--the same kind of things we did for the airplane we are doing for ALIS. So, as an example, this summer the U.S. Marine Corps will declare IOC with a version of ALIS we call 2.01. Today in the field we have Version 1.03. So there is an upgrade program going on.    The U.S. Air Force next summer will get 2.02 because we are doing incremental upgrades on ALIS. I will take it for the record that we will show you that integrated and incremental plan to improve ALIS.    Relative to the deployability of ALIS, you are spot on, ma'am. Today ALIS sits in a squadron and it is a rack of computers that weighs probably 800 to 1,000 pounds. We recognized a year and a half ago that was not going to work for deploying forces.    So today we are redesigning ALIS into what we call a Version 2 deployable version. That will be ready for the Marine Corps this July. It is two-man portable. It comes in about three or four different racks. They take it apart and--two men can put it back together and take it apart.    In the future, we will build all of the ALIS system in this deployable configuration and we will get rid of the old 1,000-pound racks we have at the squadrons now. But you are right on, ma'am.</t>
   </si>
   <si>
@@ -196,9 +172,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen, for your testimony.    Dr. Gilmore, in your testimony, you talk about the limitations of the F-35 in close air support. Specifically, you mentioned that the aircraft will need to be under the direct control of a forward air controller using voice communications, there is no ability to use an infrared pointer, there is no ability to have night vision capability--this reminds me of something before the A-10, by the way, not after the A-10--only have 20 to 30 minutes time on station, the current 2B would only have two weapons, but, then, even the follow-on is only going to have 180 bullets even if you are mounting the external gun.    And so I am concerned about the capabilities in the close air support, forward air control, and combat search and rescue mission that the F-35 is going to be serving as it replaces aircraft like the A-10.    So how many of these shortfalls--and I just mentioned a few of them--will actually be fixed in the 3F? And how many are just inherent, like the 20 minutes time on station and the lack of really total weapons capability?    When you think of close air support aircraft like the A-10, it is the survivability, the lethality, which means weapons load, and the loiter time that really make it capable to keep Americans alive. And I am concerned on the second and the third I mentioned, loiter time and lethality as far as weapons load.    And, also, are any tests, including survivability--you know, can they take hits like the A-10 can of a SAM [surface-to-air missile] and triple-A [anti-aircraft artillery], small arms, and still be able to fly back? Are you testing those types of things in a low-threat, so to speak, close air support environment, which is what we have been doing the last 25 years?</t>
   </si>
   <si>
@@ -238,9 +211,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And, Dr. Gilmore, tomorrow we are having a full committee hearing on the risk of losing military technology superiority and its implication for U.S. policy, strategy, and posture in the Asia-Pacific.    What is your opinion of the continued development and production of the F-35 program as critical to our military in maintaining its technological superiority?</t>
   </si>
   <si>
@@ -271,9 +241,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair. And I will just make a couple comments.    I appreciate you changing the flight pattern for the Joint Strike Fighter because now it gets to fly over my house about 10 times a week, and I love the sound of freedom, and it is always nice to see that.    I will remind the members that the F-16, our last multi-role fighter, went through about 138 versions and probably 15 or 16 blocks. So they call it ``test flight'' for a reason. It is not proven flight. It is test flight.    We are going into a new generation. It is a new technology. It is a new way for the warfighter to be further into the battle, further undetected into the battle. And so the F-35 is something new for the warfighter.    Those are all the nice things I am going to say. But I am going to piggyback on Congressman Walz.    I am a freshman. And in a year I am sure I am going to be sitting here and we are going to be talking about the F-35. And the F-35 is a program that is talked about in every one of our districts. Whether we have a base, whether we have an aircraft, it is talked about in every one of our districts.    So not just hitting the test points, but being able to go past the test points and get on to the next issue that maybe a test program is having, and the faster that we can get on to a program that they see our Marines flying, that they see the Navy flying and, of course, our airmen flying is the best factor that we can talk about.    So in a year, I am going to have great things to talk about the F-35, but I am hoping that we are going to have a lot of these points that the general said--that we are going to be knocking out and moving on.    And then my last, last thing is our international partners. You don't have a great multi-role fighter in America without international partners and a good sale program to our international partners. That might be 40, that might be 45, percent. But that is one of the best and most motivating factors for any multi-role fighter, whether it be our F-16 or back to our F-4.    So those are all the nice things I will say about the F-35. And I know it is hitting a lot of the test points. I talk to the pilots and the mechanics at Edwards probably on a weekly basis. And it is moving very quickly, and these last 6 months have been very, very good for the program.    Thank you, Mr. Chair.</t>
   </si>
   <si>
@@ -283,9 +250,6 @@
     <t>412620</t>
   </si>
   <si>
-    <t>Gwen Graham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman.    Thank you all for being here.    Just last month I had the opportunity to go on a congressional delegation trip to Eglin to familiarize myself with the F-35 program, and it was a wonderful opportunity. I was there with Chairman Turner and my fellow Floridian, Congressman Jeff Miller. And we share--our districts are right next to one another. And so we have the ability to share the unique training that is available in the Gulf of Mexico.    And so my question goes to Dr. Gilmore, to the training opportunities in the Eglin Gulf training areas, and I am specifically interested in ensuring that the test ranges remain and have the capacity to test our F-35s and other future-generation capabilities.    So can you please talk about what the Department has been doing to test F-35s at the Gulf Test Range and, also, the efforts the Department is undertaking to ensure that our ranges, and this range in particular, are upgraded so that they can do the necessary tests on this fighter and future generations of fighters.</t>
   </si>
   <si>
@@ -329,9 +293,6 @@
   </si>
   <si>
     <t>400209</t>
-  </si>
-  <si>
-    <t>Walter B. Jones</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you very much.    I wanted to be here for this hearing, and I am sorry I had to leave.    But, obviously, Cherry Point Marine Air Station is in my district, and as somebody said earlier, the F-35 is of great importance to many of us around the country.    This was an article in Business Insider on March 27th of this year, ``The Marine Corps want[ing] to put flawed new fighter jets into service is the biggest F-35 story right now.''    You have touched on some of this. But I have spent 13 years of my life finding out more about the V-22 than I ever thought I would learn about anything.    I was here at the time that the Marine Corps came forward, Commandant Jim Jones, saying that, ``We have got to have the V-22. The V-22 is going to replace the helicopters, heelicopters, from the Vietnam war, and we have got to have it.''    I saw at that point what I was hoping--and no this is not talking about you--but the fact that the Marine Corps was so desperate to get the V-22 that a lot of decisions were made like not fulfilling the testing of the vortex ring state and how that would impact the V-22. They scrapped that testing to save $50 million.    The plane that crashed that I have gotten involved in was the crash on April the 8th in Marana, Arizona, where 19 marines were burned to death--the co-pilot's wife lives in my district, Connie Gruber. Her husband was Brooks Gruber. The pilot John Brow's wife, Trish, lives in Steny Hoyer's district--and in trying to get the Marine Corps to write a letter to the wives saying that, ``At the time of this accident, we did not understand the vortex ring state. We didn't know how it would impact in a certain situation. So, therefore, the press release that we sent out the first month of that accident was very misleading, but the press has always picked it up as pilot error.''    Now, what am I trying to get to? What I want to make sure--and I think each one of you have done a great job, what little bit of time I was here today. And I have read many, many articles all around about the V-22, the positive and the negatives.    But I hope that, if we are going to put the pilots up and put them into certain situations, that we know the best that we can know, that we are not going to jeopardize their lives, because I have seen the pain with Connie Gruber and Trish Brow that they have carried for 15 years because of misinformation about that accident.    And my hope is, with the F-35--and you have done a great job of explaining today, and I know the chairman's been very involved in this--but let's not be so in a hurry to prove that we are right with this F-35 that we would jeopardize any pilot from anywhere.    And I want to--with the minute and 30 seconds I have left, I really would like for you to--each one--in a very short period of time tell the American people that we are not going to jeopardize our pilots to prove a point that we have got to have the F-35.    General Bogdan. Sir, I will go first.    I have been an Air Force pilot for 31 years and have over 3,300 hours in 40 different kinds of airplanes. I would never ever ask a pilot to do anything in the F-35 that I wouldn't do myself.</t>
@@ -778,11 +739,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -804,11 +763,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -828,13 +785,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -856,11 +811,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -880,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -908,11 +859,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -932,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -958,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -986,11 +931,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1010,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1038,11 +979,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1064,11 +1003,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1088,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1116,11 +1051,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1140,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1168,11 +1099,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1192,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1218,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1244,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1270,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1296,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1322,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1348,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1376,11 +1291,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1400,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1426,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1454,11 +1363,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1480,11 +1387,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1506,11 +1411,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1532,11 +1435,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1556,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1582,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1608,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1636,11 +1531,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1660,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1686,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1712,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1738,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1764,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1790,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1816,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1842,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1868,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>60</v>
-      </c>
-      <c r="H44" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1894,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1920,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1948,11 +1819,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1972,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1998,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2024,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2050,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2076,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2102,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2128,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2154,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2182,11 +2035,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2206,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2234,11 +2083,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2258,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2284,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2310,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2336,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2362,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
-      </c>
-      <c r="G63" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2388,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2414,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2440,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2466,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2492,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2518,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
-      <c r="H69" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2544,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2570,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2598,11 +2419,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2622,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G73" t="s">
-        <v>105</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2648,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>104</v>
-      </c>
-      <c r="G74" t="s">
-        <v>105</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2674,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>104</v>
-      </c>
-      <c r="G75" t="s">
-        <v>105</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2700,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" t="s">
-        <v>105</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2726,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2752,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2778,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2804,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" t="s">
-        <v>105</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2832,11 +2635,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2856,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2882,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2908,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2934,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2960,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
-      </c>
-      <c r="G86" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2986,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
-      </c>
-      <c r="G87" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3014,11 +2803,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94746.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94746.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turner. The Armed Services Tactical Air and Land Forces Subcommittee meets today in open session to receive testimony on the current status of the F-35 Joint Strike Fighter, JSF, program. This hearing continues the ongoing oversight activity conducted by the committee on the F-35 programs. The program officially began in 2001. We welcome our distinguished panel of witnesses.    We have Dr. Michael Gilmore, Director of Operational Test and Evaluation [DOT&amp;E]; Dr. Michael J. Sullivan, Director of Acquisition and Sourcing, Government Accountability Office [GAO]; the Honorable Sean Stackley, Assistant Secretary of the Navy for Research, Development and Acquisition; Lieutenant General Christopher C. Bogdan, F-35 Program Executive Officer.    I thank all of you for your service and look forward to your testimony today.    The F-35 is a complex program. It is well known that, during its development, the F-35 program has experienced significant cost, schedule, and performance problems. Current acquisition costs are now approaching $400 billion, which, according to GAO, makes this DOD's [Department of Defense] most costly and ambitious acquisition program.    Over the last year, steady progress was achieved in development, production, and operations, but the subcommittee continues to have concerns regarding recent engine test failures and on software development and integration.    This committee, in particular this subcommittee, has maintained vigilant oversight on the F-35 program through legislation, hearings, and briefings, and, most recently, a trip to Eglin Air Force Base, Florida, to see the F-35 operations and talk to F-35 pilots and maintenance personnel.    Last year the committee required the Secretary of Defense to establish an independent team to review and assess the development of software and software integration for the F-35 program. This subcommittee may recommend a similar approach as a way to effectively review the most recent engine test failures.    I understand the substantial investment in the F-35 is more about the requirement for fifth-generation tactical fighter capability than it is about the F-35 itself. And let me underscore that. All of the members of this subcommittee are very well aware of the need for fifth-generation tactical fighter capability and the need to ensure that the F-35 is one of the most capable aircraft.    Based on the briefings and hearings held by the subcommittee, I have learned that fifth-generation tactical fighter capability is essential for maintaining air dominance and national security. Despite this critical need, that does not mean that this program should be rubber-stamped. As we have done in the past, the committee will hold this program accountable for cost, schedule, and performance.    The budget request for fiscal year 2016 includes $1.8 billion for F-35 research, development, test, and evaluation and $8.7 billion for the procurement of 57 F-35s, and $410.2 million for spares. This represents an increase of 19 aircraft and is also a $2.5 billion increase in F-35 funding from the fiscal year 2015 enacted levels.    And we all understand that we need to get to a higher production level to get the lower per-unit cost. We also understand that we have to address the issues operationally for the F-35 to ensure its best capability for the pilots and its intended needs.    We will hear today both the Director of the Operational Test and Evaluation and the GAO have concerns about the F-35 program for fiscal year 2016 and beyond. I look forward to all of our witnesses' testimony today, which will provide for a better understanding of the current status of the F-35 program.    [The prepared statement of Mr. Turner can be found in the Appendix on page 33.]</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400356</t>
   </si>
   <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman. And thank you for calling this. I think this is an incredibly important project for us.    So we are looking at the 2016 budget request for the F-35 Lightning II aircraft program. It totals $10.8 billion spread across 17 separate procurement and R&amp;D [research and development] accounts. That is an enormous amount even by the standards of the Department of Defense's budget.    The total is, for example, more than the Navy's fiscal year 2016 request for aircraft carrier and submarine construction combined. It is five times as much as the Army's fiscal year 2016 request for weapons and tracked combat vehicles. So given the scale of this proposed funding, I think it is important that we try to understand what is going on with the program.    Since World War II, America's way of war has required air superiority. And so airpower is one of the great advantages that we give to our military, especially when we are in places and it has proven time and time again. So the F-35 program, while flawed to this point, is really the key to retaining that airpower edge for the next 20 years or so. It is also going to be flown by at least 12 allied nations, all of whom are likely to be our partners in future conflicts at some point.    And so there have been some critics who have said we need to terminate this program because it is over cost, it is long overdue, and there are still problems with it. However, I believe that we are past that decision point. We have just got to make this program work.    And I think you will agree with me, Mr. Chairman, we have had many discussions on this. We have got to get this done.    Making it work is not an easy task. It is a very complicated piece of machinery, and everybody's had their fingers in it. Lots of decision have been made, and lots of decisions have been changed.    I am very still concerned about the engine fire last year, which resulted in a setback in the testing schedule. The substantive grounding also highlighted the risk of the current sole-source engine production arrangement that this program depends upon.    Secondly, the highly sophisticated software for the F-35 continues to encounter developmental delays. Both the GAO and the DOT&amp;E have pointed out in their most recent reports that, because of the pressures on the flight testing schedule, a significant amount of test points were deferred or entirely dropped.    More specifically, the committee was recently informed by the F-35 program office at the start of development flight testing of some critical elements of the Block 3F software effort are on hold indefinitely, pending more progress on the critical fusion element of the preceding Block 2B software.    In addition to its stealth characteristics, the ability to fuse sensor feeds from other F-35s and other sources is one of the most important parts of the F-35 program. So, of course, this delay is also troubling with respect to the program.    And the operating and maintenance: The sustainability is significantly different than when we envisioned this project on the drawing boards. The GAO report noted in particular that the F-135 engine is far below reliability targets and that, as a result, the overall availability of the F-35 continues to lag significantly behind expectations.    I know that, when we have had other aircraft, new aircraft, we have had some of the same problems, not to this extent, not in this size, but we do need to get past these issues. So given all of these challenges and the very large funding request for the F-35 that we are faced with, I think it is important in today's hearing.    And this is what I would like to hear about: Is the proposed increase in F-35 production numbers, which would rise from 38 in fiscal year 2015 to 57 in fiscal year 2016, justified, given where the program is in development? What would a reduction in the numbers of aircraft look in particular to this program?    Second, we need a detailed review of what happened with that engine fire last year. I have been asking for it. I haven't heard it yet. We know that the aircraft and the engine in question were relatively new, yet a failure still occurred. Is it a manufacturing defect? Is it a design flaw? I would like to hear about that.    Third, the sensor fusion aspect of the F-35 software is a little understood, but critical, issue that is still not working as planned. What degree of risk do we face with that portion of the software? And could problems in this area turn what is the current delay of about 3 to 6 months into years?    So I look forward to getting some of the answers to these questions, gentlemen. Thank you.    And, Mr. Chairman, thank you for indulging me with the time.</t>
   </si>
   <si>
@@ -70,12 +85,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gilmore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Gilmore. Thank you, Mr. Chairman and Congresswoman Sanchez and members of the subcommittee. I will just briefly summarize my written testimony.    Block 2B testing was extended, but is now nearing completion. The program developed an additional build to the Block 2B mission system software designed to incorporate fixes to problems, particularly in fusion of information both from the sensors on an individual aircraft as well as from the sensors on other F-35 aircraft that were highlighted in testing that was conducted in December of last year and early in 2015.    This so-called engineering test build was flown on 17 test sorties using 3 different mission systems to test aircraft in March. And although some improvement in performance was reportedly observed, distinguishing ground targets from clutter continue to be problematic.    And given the limits in the improvement seen using this engineering test build, I understand the program has decided to field the current, that is, prior to the engineering test build version, of the Block 2B software as opposed to waiting and doing additional testing with the engineering test build and to defer fixes of the software to Block 3i development and testing. If the balance of 2B testing completes in April, this would represent a delay of about 6 months relative to the program's master schedule.    Modification of early lot aircraft into a configuration usable for combat with Block 2B capabilities, a necessity brought on by the concurrency in the program, which dates to the program's initiation back in early last decade, is taking longer than planned and longer than predicted when the Department eliminated, on my recommendation, the block to the long-planned Block 2B operational utility evaluation [OUE].    These delays, as well as other problems that motivated the extension of Block 2B testing, indicate clearly that the aircraft would not have been ready to conduct the OUE by beginning training with operational pilots this past January and convinced me that the recommendation I made, which was adopted, was the correct one.    The trends and reliability metrics we track are unclear. The most recent data we have obtained generally indicate, with the exception of mean flight hours between critical failure for the F-35B, a 3-month upward trend, which is good, from September 2014 to November 2014. However, when combined with data from the previous 3 months, they showed both declines and increases. Thus, I cannot yet conclude with confidence that reliability is continuing to improve.    Aircraft availability did show improvement at the end of 2014, as the program focused on providing greater supplies of spares and on shortening maintenance activities that had heretofore required longer aircraft downtimes. However, that trend has not been sustained so far in calendar year 2015, as the first 2 months have shown a decline. But, again, that is only 2 months. We shouldn't rush to conclusions about whether that constitutes a trend.    I have also updated my analysis of the growth and reliability needed for the F-35A and B variants to achieve their requirements based on the most recent data from November 2014. And that analysis indicates that growth and selected reliability metrics for both aircraft, the A and the B, remain insufficient to meet requirements of maturity. And there is insufficient flight hours in the C variant to preclude that--I can't do meaningful analysis at this point in development. It is still too early.    Discoveries in testing continue to occur, which should be expected in a program of this complexity, such as was highlighted regarding sensor fusion, as well as the occurrence of additional unpredicted cracking in the F-35B durability test article, which was discovered in February and caused testing to pause until repairs could be completed. Testing did restart on the 1st of April.    Flight testing of Block 3i mission systems, consisting of a Block 2B software we hosted on the upgraded set of processor hardware needed before Block 3F software can be used, we started March. And one of the mission systems test aircraft began testing the next increment of software that is called 3iR5.    Block 3F flight testing also began in March, what was limited to three single-ship test flights on one mission system's test aircraft, AF-3, prior to it being reconfigured to support late Block 3i testing. This start represents an 11-month delay relative to the program's master schedule and about a 1-month delay relative to the program's more recent projections.    Continued Block 3F testing is not scheduled until June, as the program's plans for reconfiguring aircraft in the Block 2B configuration to Block 3F are under development.    In both my annual report and my written testimony, I identified problems with the U.S. Reprogramming Laboratory, which is the government facility that is going to be used to generate what are called mission data files for the aircraft--mission data loads for the aircraft. These data loads are essential to the effective combat operations of Joint Strike Fighter.    I had identified 2 years ago shortfalls in those labs. The program office has done a study that reconfirmed those shortfalls and found new shortfalls. About 2 years ago the Secretary of Defense provided resources to correct those shortfalls, but no action has been taken.    It is my understanding, if the program office takes action very quickly, those shortfalls can be corrected in time for operational testing and, more importantly, for full operational capability, and I recommend strongly that that action be taken.    In my annual report and written testimony, I provided no review of Block 2B capabilities and limitations. The program has identified and prioritized many deficiencies for correction. Nonetheless, Block 2B aircraft will be fielded without a number of corrections of operational significance in place.    Further discovery of problems is likely, in my view, as operational units start using JSF in ways it has not previously been used. I agree with the program's assessment that there is at least 6 months' pressure in completing Block 3F, recently projected by the program to complete testing in May 2017.    While the program has worked hard to reduce the bow wave of what it calls technical debt, which are fixes to problems that were deferred from earlier mission software versions to later versions--and that continues to happen--the program is now deferring fixes, including problems with fusion and testing to Block 3i and Block 3F, which, together with the delays that have occurred in starting Block 3 testing, increase risk on the program's projected Block 3F schedule.    Thank you.    [The prepared statement of Dr. Gilmore can be found in the Appendix on page 35.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Turner. Mr. Sullivan, who hails from the great and historic Wright-Patterson Air Force Base.</t>
   </si>
   <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sullivan. Sorry about the Flyers this year, although they made it.</t>
   </si>
   <si>
@@ -85,6 +106,9 @@
     <t xml:space="preserve">    Mr. Turner. Thank you.    Mr. Secretary.</t>
   </si>
   <si>
+    <t>Stackley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary Stackley. Chairman Turner, distinguished members of the subcommittee, I thank you for the opportunity to appear before you today to testify on the F-35 Joint Strike Fighter program.    The Marine Corps variant of the Joint Strike Fighter is on track to achieve its initial operational capability, or IOC, this summer. This milestone is, of course, but a way point, for the software build called Block 2B, which the Marines will employ at IOC, provides limited warfighting capability in accordance with the program's long-planned incremental build plan.    Full warfighting capability, at least sufficient to support the final, of the services and our international partners and our foreign military sales customer nations IOCs will be delivered in a subsequent software build called Block 3F.    That notwithstanding, it should not be lost on this subcommittee, the significant challenges and adversity that the program has and will continue to overcome in order to achieve the Marines' IOC and that the milestone will be achieved more or less in accordance with the budget and schedule established by the program about 4 years ago.    Today, increasingly, the focus is on delivering the next block of capability, Block 3i, which incorporates upgraded computing hardware, but otherwise is the warfighting equivalent of Block 2B, and, therefore, assessed as relatively low risk. We have begun flight testing with Block 3i, and today we assess that we are on track to support the Air Force IOC with Block 3i capability in the summer of 2016.    Completion of the final block of capability, Block 3F, which is the capability that the services will ultimately deploy with, poses the greatest challenge to completion of the system development phase of the Joint Strike Fighter program.    Block 3F software requirements are well understood and stable. However, this block includes the most complex functionality of the three software baselines, including what is referred to as sensor fusion.    Further, coding and testing of Block 3F has been delayed as a result of the resource demands, software engineers, and lab facilities associated with supporting completion of earlier software builds.    These factors add up to the program's estimate of 4 to 6 months schedule risk with completion of Block 3F. Despite the schedule risk, we remain on track to support the Navy carrier variant IOC with Block 3F in 2018.    In parallel with completion of the system software and related flight testing leading to each of the service's IOCs, the program is managing the resolution of technical issues that have been discovered in testing; the ramp-up of production of the three aircraft variants across a large and growing industrial base that supports JSF; improvements to affordability and production; incorporation of modifications to correct deficiencies identified on earlier production aircraft; needed improvements to reliability and maintainability of the aircraft; planning and assignment of maintenance, repair, overhaul, and upgrade, or MRO&amp;U, responsibilities across the global regions where the JSF will operate; and formulation of the program operations and support strategy with its own focus on affordability.    To briefly summarize, today's scorecard on technical issues largely reflects a large list of issues that are well understood with fixes either under development or in various stages of implementation. That said, we are wary that further technical issues are certain to emerge as we press on with system testing, and it will be critical that the program rapidly correct these deficiencies while mitigating their impact on test and production.    The most notable technical issue which emerged this past year, a rub condition between the engine rotor and rotor seal, led to an engine fire and brought flight testing to a standstill for several weeks while the root cause of the issue was being determined. We are confident that this technical issue is resolved and are proceeding with implementation of the fix across the fleet of affected aircraft.    Aircraft production is demonstrating healthy labor learning curve performance, improving quality trends, improving schedule performance and lot-over-lot unit cost reduction. This is as expected for a program at this stage.    To spur a greater cost improvement, the program, led by an industry initiative, has launched an effort referred to as Blueprint for Affordability, which has established a target unit cost for the F-35A of about $80 million by 2019.    We are embarking on similar concerted efforts in order to improve aircraft reliability, maintainability, and availability, or RM&amp;A. Overall, performance in this area has been poor.    It is only in the past 6 months that improvements to design, parts availability, and maintenance, training, and support are starting to show needed results, providing a positive sign that we may meet our interim RM&amp;A requirement of 60 percent aircraft availability by year's end. RM&amp;A is a principal focus area for the program in 2015.    Lastly, the program is working closely with the services and our international partners and industry to formulate the operations and sustainment, or O&amp;S, strategy for the Joint Strike Fighter.    The effort encompasses activities stretching from completing development of logistics tools, to standup of depot facilities, to supply chain management, engineering and software support, and determination of the business plan that will accompany each of these activities and an overarching O&amp;S war on cost.    In summary, while maintaining its focus on achieving the services' initial operational capability milestones, the JSF program is also systematically tackling a large number of risk items and issues that confront this program across the full spectrum spanning development, test, production, operations, and sustainment.    We are experiencing improving trends in virtually all areas, but we are painstakingly aware of the significant challenges that remain ahead and are committed to meeting those challenges head-on with discipline, with rigor, and with full transparency.    Mr. Chairman, we look forward to answering your questions.    [The joint prepared statement of Secretary Stackley and General Bogdan can be found in the Appendix on page 72.]</t>
   </si>
   <si>
@@ -109,6 +133,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman.    Thank you all for your testimony.    I do agree that the importance of this weapon system as to our airpower and our national security strategy is pretty clear to everyone. I also appreciate your optimism, but I don't think we could come here without the skepticism that is probably healthy in any endeavor that we do.    So just a couple of things I would ask. And I am going to build on this last question on long-term viability and sustainability because the issues we are talking about are just getting us to the baseline and where we go from there.    And so, Mr. Sullivan, on several occasions, I think you have been thoughtful about it and raised long-term affordability as a key area of risk. Is that addressed? Do you see that moving in the right direction? And do you still consider--I think it is obvious and wise to think that way. But where are we headed with it?</t>
   </si>
   <si>
@@ -136,6 +166,12 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    When we went to Eglin, we spent some time with the pilots and asked them what are the problems that they are finding. And, you know, that is certainly the best way to find out, I think, is to actually talk to them. And I know that I think you have been briefed on it and seen the list.    And I guess kind of parlaying on what Mr. Walz asked, how many of these things that you see here--and I could go through them all; don't necessarily have to--will we be able to address in the next year?    General Bogdan. Over the past 2 years, we have faced a number of technical issues that 2 years ago or a year ago, if you had said, ``Where will you be in April of 2015?'' I would have told you, ``Well, I would like to have this retired and that retired and that retired.''    So let me give you a list of a few of the things that we have retired and now a few of the things we are working on in 2015 when we come back next year will hopefully retire.    A year ago there was a lot of speculation and discussion about how good the helmet was going to be, the Generation III helmet, because the Generation II helmet had some shortfalls. It had a jitter problem. It had green glow problems. It had latency problems. It wasn't good enough for the warfighter.    Today I can tell you we are flight-testing the Gen III helmet right now and all indications are from the test pilots is that it is much improved, much improved. So I put a half a checkmark in that box and say, ``Okay. We are controlling that.''    Last year we had a major engine problem. I will tell you today we have the solution for that engine problem. It is being put into the field. And by this summer, I will have the final production version of that fix into the production line and that will be behind us.    We had a problem with lightning. We were having a problem qualifying the airplane to fly in lightning last year. That problem is basically behind us.    And, in fact, I don't know if the guys at Eglin told you, but 2 weeks ago a CF-8 flying--returning from base was struck by lightning. He was in clear air and he was struck by lightning, and absolutely nothing bad happened to the airplane.    The pilot landed the airplane. No warnings and cautions. No problems. And we could see where the lightning went into the right wing tip and came out. So lightning is another one we would put on that list of last year a problem, not a problem this year.    Fuel dumping was a problem last year because the fuel dump on the airplane comes from the bottom of the wing. And so, when you dump fuel from the bottom of the wing, there is high pressure there. It pushes the fuel up onto the wing and it sticks and it makes the wing wet. We have solved that problem.    So those are just a few of the things that a year or two ago were high on our list. What is high on our list this year?    We already talked about ALIS. ALIS has a long way to go, sir. It is a complicated 5-million-lines-of-code piece of equipment that we started treating like a piece of support equipment. It is not. It is an integral part of the weapon system.    So we have had to take steps in the last 2 years to change fundamentally the way we develop ALIS. We have applied the same techniques we used in developing software on the airplane to now developing software in ALIS. It is just going to take us some time to realize those results.    We had a problem with the hook. When we first tested the hook on a C-model a year and a half ago, we missed seven out of eight traps at Lakehurst. We went out to the boat last year and hit 124 out of 124.    So I guess what I am expressing here is we are going to have more technical problems on this program. It is a measure of a good program for you to be able to absorb those, find fixes for them, and then continue moving the ball down the field on the program. I think we are in a better position now than we ever have been to address those kind of problems.</t>
   </si>
   <si>
@@ -157,6 +193,12 @@
     <t>412533</t>
   </si>
   <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    I find it comforting that--or maybe not so comforting to think that the question I really wanted to talk about was ALIS and it is one that is of concern to the chairman. As a former aviator and, also, a logistics officer, let's talk maintenance and logistics and ALIS.    I am concerned that the manpower it takes to clear every single one of those false positives--false negatives is driving up maintenance costs and now you have got more and more man-hours or person-hours or airmen-hours or contractor-hours that have to clear every single one of those.    In addition, whether it is 80 percent or whatever it is, I would like to know--and you don't have to give it to me today because I doubt, General, that you have it--how often are you getting a circle red X or a red X status on aircraft that is driving down the aircraft availability for missions and for different mission profiles? Because now, even if it is a false positive, you are affecting mission readiness for the aircraft.    And you talked about problems with the system in the past, not necessarily ALIS, but problems that have been fixed, last year the helmets--Generation II and Generation III helmets.    Is there a timeline in place to fix all of these problems with ALIS? Do you have benchmarks in place: ``In 6 months you will have X number of lines of codes fixed and within a year we will be at this point''?    And then the final question is--one of the issues is not even software. We are talking about the size, bulk, and weight. My understanding is, during the carrier integration phase, ALIS could not deploy and, instead, the USS Hornet [USS Wasp] had to rely upon the ALIS system at Fort Worth, Texas, for logistical support because it was too bulky to deploy onto the [Wasp], which, you know, as someone who flew small aircraft, if you couldn't carry it in the aircraft or sling-loaded under the aircraft, it didn't go with you. The idea that you would have an integral part of your maintenance system that can't even fit on the USS [Wasp] is very, very troubling to me.    General Bogdan. Yes, ma'am. Relative to the plan, we absolutely do have a plan for ALIS. As I said before, until about 2 years ago, we weren't treating ALIS much other than a piece of support equipment. We now recognize that it could be its own weapons system.    So we have put all the system's engineering discipline, the software metrics--the same kind of things we did for the airplane we are doing for ALIS. So, as an example, this summer the U.S. Marine Corps will declare IOC with a version of ALIS we call 2.01. Today in the field we have Version 1.03. So there is an upgrade program going on.    The U.S. Air Force next summer will get 2.02 because we are doing incremental upgrades on ALIS. I will take it for the record that we will show you that integrated and incremental plan to improve ALIS.    Relative to the deployability of ALIS, you are spot on, ma'am. Today ALIS sits in a squadron and it is a rack of computers that weighs probably 800 to 1,000 pounds. We recognized a year and a half ago that was not going to work for deploying forces.    So today we are redesigning ALIS into what we call a Version 2 deployable version. That will be ready for the Marine Corps this July. It is two-man portable. It comes in about three or four different racks. They take it apart and--two men can put it back together and take it apart.    In the future, we will build all of the ALIS system in this deployable configuration and we will get rid of the old 1,000-pound racks we have at the squadrons now. But you are right on, ma'am.</t>
   </si>
   <si>
@@ -172,6 +214,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen, for your testimony.    Dr. Gilmore, in your testimony, you talk about the limitations of the F-35 in close air support. Specifically, you mentioned that the aircraft will need to be under the direct control of a forward air controller using voice communications, there is no ability to use an infrared pointer, there is no ability to have night vision capability--this reminds me of something before the A-10, by the way, not after the A-10--only have 20 to 30 minutes time on station, the current 2B would only have two weapons, but, then, even the follow-on is only going to have 180 bullets even if you are mounting the external gun.    And so I am concerned about the capabilities in the close air support, forward air control, and combat search and rescue mission that the F-35 is going to be serving as it replaces aircraft like the A-10.    So how many of these shortfalls--and I just mentioned a few of them--will actually be fixed in the 3F? And how many are just inherent, like the 20 minutes time on station and the lack of really total weapons capability?    When you think of close air support aircraft like the A-10, it is the survivability, the lethality, which means weapons load, and the loiter time that really make it capable to keep Americans alive. And I am concerned on the second and the third I mentioned, loiter time and lethality as far as weapons load.    And, also, are any tests, including survivability--you know, can they take hits like the A-10 can of a SAM [surface-to-air missile] and triple-A [anti-aircraft artillery], small arms, and still be able to fly back? Are you testing those types of things in a low-threat, so to speak, close air support environment, which is what we have been doing the last 25 years?</t>
   </si>
   <si>
@@ -211,6 +259,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And, Dr. Gilmore, tomorrow we are having a full committee hearing on the risk of losing military technology superiority and its implication for U.S. policy, strategy, and posture in the Asia-Pacific.    What is your opinion of the continued development and production of the F-35 program as critical to our military in maintaining its technological superiority?</t>
   </si>
   <si>
@@ -241,6 +295,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair. And I will just make a couple comments.    I appreciate you changing the flight pattern for the Joint Strike Fighter because now it gets to fly over my house about 10 times a week, and I love the sound of freedom, and it is always nice to see that.    I will remind the members that the F-16, our last multi-role fighter, went through about 138 versions and probably 15 or 16 blocks. So they call it ``test flight'' for a reason. It is not proven flight. It is test flight.    We are going into a new generation. It is a new technology. It is a new way for the warfighter to be further into the battle, further undetected into the battle. And so the F-35 is something new for the warfighter.    Those are all the nice things I am going to say. But I am going to piggyback on Congressman Walz.    I am a freshman. And in a year I am sure I am going to be sitting here and we are going to be talking about the F-35. And the F-35 is a program that is talked about in every one of our districts. Whether we have a base, whether we have an aircraft, it is talked about in every one of our districts.    So not just hitting the test points, but being able to go past the test points and get on to the next issue that maybe a test program is having, and the faster that we can get on to a program that they see our Marines flying, that they see the Navy flying and, of course, our airmen flying is the best factor that we can talk about.    So in a year, I am going to have great things to talk about the F-35, but I am hoping that we are going to have a lot of these points that the general said--that we are going to be knocking out and moving on.    And then my last, last thing is our international partners. You don't have a great multi-role fighter in America without international partners and a good sale program to our international partners. That might be 40, that might be 45, percent. But that is one of the best and most motivating factors for any multi-role fighter, whether it be our F-16 or back to our F-4.    So those are all the nice things I will say about the F-35. And I know it is hitting a lot of the test points. I talk to the pilots and the mechanics at Edwards probably on a weekly basis. And it is moving very quickly, and these last 6 months have been very, very good for the program.    Thank you, Mr. Chair.</t>
   </si>
   <si>
@@ -250,6 +310,12 @@
     <t>412620</t>
   </si>
   <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman.    Thank you all for being here.    Just last month I had the opportunity to go on a congressional delegation trip to Eglin to familiarize myself with the F-35 program, and it was a wonderful opportunity. I was there with Chairman Turner and my fellow Floridian, Congressman Jeff Miller. And we share--our districts are right next to one another. And so we have the ability to share the unique training that is available in the Gulf of Mexico.    And so my question goes to Dr. Gilmore, to the training opportunities in the Eglin Gulf training areas, and I am specifically interested in ensuring that the test ranges remain and have the capacity to test our F-35s and other future-generation capabilities.    So can you please talk about what the Department has been doing to test F-35s at the Gulf Test Range and, also, the efforts the Department is undertaking to ensure that our ranges, and this range in particular, are upgraded so that they can do the necessary tests on this fighter and future generations of fighters.</t>
   </si>
   <si>
@@ -293,6 +359,12 @@
   </si>
   <si>
     <t>400209</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Walter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you very much.    I wanted to be here for this hearing, and I am sorry I had to leave.    But, obviously, Cherry Point Marine Air Station is in my district, and as somebody said earlier, the F-35 is of great importance to many of us around the country.    This was an article in Business Insider on March 27th of this year, ``The Marine Corps want[ing] to put flawed new fighter jets into service is the biggest F-35 story right now.''    You have touched on some of this. But I have spent 13 years of my life finding out more about the V-22 than I ever thought I would learn about anything.    I was here at the time that the Marine Corps came forward, Commandant Jim Jones, saying that, ``We have got to have the V-22. The V-22 is going to replace the helicopters, heelicopters, from the Vietnam war, and we have got to have it.''    I saw at that point what I was hoping--and no this is not talking about you--but the fact that the Marine Corps was so desperate to get the V-22 that a lot of decisions were made like not fulfilling the testing of the vortex ring state and how that would impact the V-22. They scrapped that testing to save $50 million.    The plane that crashed that I have gotten involved in was the crash on April the 8th in Marana, Arizona, where 19 marines were burned to death--the co-pilot's wife lives in my district, Connie Gruber. Her husband was Brooks Gruber. The pilot John Brow's wife, Trish, lives in Steny Hoyer's district--and in trying to get the Marine Corps to write a letter to the wives saying that, ``At the time of this accident, we did not understand the vortex ring state. We didn't know how it would impact in a certain situation. So, therefore, the press release that we sent out the first month of that accident was very misleading, but the press has always picked it up as pilot error.''    Now, what am I trying to get to? What I want to make sure--and I think each one of you have done a great job, what little bit of time I was here today. And I have read many, many articles all around about the V-22, the positive and the negatives.    But I hope that, if we are going to put the pilots up and put them into certain situations, that we know the best that we can know, that we are not going to jeopardize their lives, because I have seen the pain with Connie Gruber and Trish Brow that they have carried for 15 years because of misinformation about that accident.    And my hope is, with the F-35--and you have done a great job of explaining today, and I know the chairman's been very involved in this--but let's not be so in a hurry to prove that we are right with this F-35 that we would jeopardize any pilot from anywhere.    And I want to--with the minute and 30 seconds I have left, I really would like for you to--each one--in a very short period of time tell the American people that we are not going to jeopardize our pilots to prove a point that we have got to have the F-35.    General Bogdan. Sir, I will go first.    I have been an Air Force pilot for 31 years and have over 3,300 hours in 40 different kinds of airplanes. I would never ever ask a pilot to do anything in the F-35 that I wouldn't do myself.</t>
@@ -689,7 +761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,7 +769,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,2093 +791,2479 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G38" t="s">
+        <v>66</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
+      </c>
       <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
       <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G52" t="s">
+        <v>81</v>
+      </c>
       <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
       <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G57" t="s">
+        <v>93</v>
+      </c>
       <c r="H57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G59" t="s">
+        <v>98</v>
+      </c>
       <c r="H59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G61" t="s">
+        <v>98</v>
+      </c>
       <c r="H61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G63" t="s">
+        <v>98</v>
+      </c>
       <c r="H63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G65" t="s">
+        <v>98</v>
+      </c>
       <c r="H65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G67" t="s">
+        <v>98</v>
+      </c>
       <c r="H67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G69" t="s">
+        <v>98</v>
+      </c>
       <c r="H69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G71" t="s">
+        <v>98</v>
+      </c>
       <c r="H71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G73" t="s">
+        <v>115</v>
+      </c>
       <c r="H73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G74" t="s">
+        <v>115</v>
+      </c>
       <c r="H74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G75" t="s">
+        <v>115</v>
+      </c>
       <c r="H75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G76" t="s">
+        <v>115</v>
+      </c>
       <c r="H76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G80" t="s">
+        <v>115</v>
+      </c>
       <c r="H80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
+        <v>39</v>
+      </c>
       <c r="H82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>39</v>
+      </c>
       <c r="H83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G84" t="s">
+        <v>39</v>
+      </c>
       <c r="H84" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G85" t="s">
+        <v>39</v>
+      </c>
       <c r="H85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G86" t="s">
+        <v>39</v>
+      </c>
       <c r="H86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G87" t="s">
+        <v>39</v>
+      </c>
       <c r="H87" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94746.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94746.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Turner</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400356</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sanchez</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
   </si>
   <si>
     <t>412214</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Walz</t>
@@ -761,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +781,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,2476 +806,2688 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="H63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G65" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="H65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="H67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="H73" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G74" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="H74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="H75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G76" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="H76" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I76" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G80" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H82" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H83" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H85" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H86" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H87" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I87" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
